--- a/src/test/resources/Documents/1054/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/1054/Actual/JobPlanning.xlsx
@@ -65,16 +65,16 @@
     <t>Label  2p</t>
   </si>
   <si>
-    <t>Flexo press 4x0</t>
+    <t>Digital Print 4x0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>RCS-Parallel</t>
-  </si>
-  <si>
-    <t>3,465</t>
+    <t>Digital Press-Labelfire-340</t>
+  </si>
+  <si>
+    <t>6,825</t>
   </si>
   <si>
     <t>Not allocated</t>
@@ -86,7 +86,7 @@
     <t>Rewind Parallel</t>
   </si>
   <si>
-    <t>3,438</t>
+    <t>3,385</t>
   </si>
 </sst>
 </file>
